--- a/Command Table/Mesh_Project_Command_Table.xlsx
+++ b/Command Table/Mesh_Project_Command_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omrah\SimplicityStudio\v4_workspace\assignment-10-bluetooth-mesh-omraheja\Command Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97F2ABC-2ED5-4D19-ACCB-D838F3B822F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E9F44-F170-4E57-8641-99A686B9DAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" xr2:uid="{DF2F8F72-2A46-4B21-8EEB-80774B529C70}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
-  <si>
-    <t>This node will implement the Client model (low power node which implements noise and humidity sensor)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>Event Handler Event</t>
   </si>
@@ -95,48 +92,18 @@
     <t>gecko_cmd_system_reset, displayUpdate, gecko_cmd_mesh_lpn_establish_friendship (only for LPN)</t>
   </si>
   <si>
-    <t>gecko_evt_mesh_lpn_friendship_established_id, gecko_evt_mesh_lpn_friendship_failed_id (only for LPN)</t>
-  </si>
-  <si>
     <t>Completes factory reset, updates display for remove charge buildup, log timestamp value increase, tries to establish friendship on Client side</t>
   </si>
   <si>
     <t>gecko_evt_mesh_node_initialized_id</t>
   </si>
   <si>
-    <t>provisioned &amp;&amp; DeviceUsesClientModel()</t>
-  </si>
-  <si>
-    <t>gecko_cmd_mesh_generic_client_init, lpn_init, gpioIntEnable</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Initialize the client model and does low power node initialization</t>
-  </si>
-  <si>
-    <t>provisioned &amp;&amp; DeviceUsesServerModel()</t>
-  </si>
-  <si>
-    <t>gecko_cmd_mesh_generic_server_init, gecko_cmd_mesh_friend_init()</t>
-  </si>
-  <si>
     <t>Initialize the server model and friend initialization</t>
   </si>
   <si>
-    <t>provisioned &amp;&amp; DeviceIsOnOffPublisher()</t>
-  </si>
-  <si>
-    <t>mesh_lib_init(malloc,free,8)</t>
-  </si>
-  <si>
-    <t>Initialize the mesh library with support of up to 8 models</t>
-  </si>
-  <si>
-    <t>provisioned &amp;&amp; DeviceIsOnOffSubscriber()</t>
-  </si>
-  <si>
     <t>mesh_lib_init(malloc,free,9), mesh_lib_generic_server_register_handler, mesh_lib_generic_server_update, mesh_lib_generic_server_publish</t>
   </si>
   <si>
@@ -176,9 +143,6 @@
     <t>gecko_evt_mesh_generic_server_client_request_id</t>
   </si>
   <si>
-    <t>DeviceUsesServerModel()</t>
-  </si>
-  <si>
     <t>mesh_lib_generic_server_event_handler</t>
   </si>
   <si>
@@ -209,24 +173,6 @@
     <t>Handle scheduler events</t>
   </si>
   <si>
-    <t>Button 0 press or release event &amp;&amp; DeviceIsOnOffPublisher()</t>
-  </si>
-  <si>
-    <t>mesh_lib_generic_client_publish</t>
-  </si>
-  <si>
-    <t>Publish button press or release using the on off model.  Press = on; will be updated for sensor</t>
-  </si>
-  <si>
-    <t>client request or server change callback for generic on/off model</t>
-  </si>
-  <si>
-    <t>"Button Pressed" or "Button Released"</t>
-  </si>
-  <si>
-    <t>Display the state of the button on the subscriber; will be updated for sensor</t>
-  </si>
-  <si>
     <t>On LPN side (used at this node)</t>
   </si>
   <si>
@@ -261,13 +207,28 @@
   </si>
   <si>
     <t>NOTE: This command table might be updated in future and code will be done accordingly. For now code is written such that it is capable of implementing both server and client functionality, however, the unrequired code will be removed in future.</t>
+  </si>
+  <si>
+    <t>This node will implement the Server model (low power node which implements noise and humidity sensor)</t>
+  </si>
+  <si>
+    <t>gecko_evt_mesh_lpn_friendship_established_id, gecko_evt_mesh_lpn_friendship_failed_id</t>
+  </si>
+  <si>
+    <t>on nosie, humidity sensor and pb0 interrupt</t>
+  </si>
+  <si>
+    <t>mesh_lib_generic_server_publish</t>
+  </si>
+  <si>
+    <t>gecko_cmd_mesh_generic_server_init, init_models</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,12 +303,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,13 +624,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E565D840-D1FF-4ED3-9160-BC3A45113EA4}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" style="2" customWidth="1"/>
@@ -680,449 +641,375 @@
     <col min="9" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+        <v>28</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="H21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:C32"/>
+    <mergeCell ref="A26:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Command Table/Mesh_Project_Command_Table.xlsx
+++ b/Command Table/Mesh_Project_Command_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omrah\SimplicityStudio\v4_workspace\assignment-10-bluetooth-mesh-omraheja\Command Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E9F44-F170-4E57-8641-99A686B9DAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D50D7A-7363-42BD-9C50-AE4E10001D0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" xr2:uid="{DF2F8F72-2A46-4B21-8EEB-80774B529C70}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Event Handler Event</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Initialize the mesh stack</t>
   </si>
   <si>
-    <t>factory reset timer handle, display update timer handle, log time timer handle, friend find timer handle</t>
-  </si>
-  <si>
-    <t>gecko_cmd_system_reset, displayUpdate, gecko_cmd_mesh_lpn_establish_friendship (only for LPN)</t>
-  </si>
-  <si>
     <t>Completes factory reset, updates display for remove charge buildup, log timestamp value increase, tries to establish friendship on Client side</t>
   </si>
   <si>
@@ -101,24 +95,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Initialize the server model and friend initialization</t>
-  </si>
-  <si>
-    <t>mesh_lib_init(malloc,free,9), mesh_lib_generic_server_register_handler, mesh_lib_generic_server_update, mesh_lib_generic_server_publish</t>
-  </si>
-  <si>
-    <t>See init_models, onoff_request, onoff_update_and_publish in lightbulb.c, soc-btmesh-light example</t>
-  </si>
-  <si>
     <t>!provisioned</t>
   </si>
   <si>
     <t>gecko_cmd_mesh_node_start_unprov_beaconing(0x03)</t>
   </si>
   <si>
-    <t>gecko_evt_mesh_node_provisioning_started, gecko_evt_mesh_node_provisioned, gecko_evt_mesh_node_provisioning_failed</t>
-  </si>
-  <si>
     <t>Start beaconing for provisioning in PB-ADV and PB-GATT modes</t>
   </si>
   <si>
@@ -170,12 +152,6 @@
     <t>gecko_evt_system_external_signal_id</t>
   </si>
   <si>
-    <t>Handle scheduler events</t>
-  </si>
-  <si>
-    <t>On LPN side (used at this node)</t>
-  </si>
-  <si>
     <t>gecko_evt_mesh_lpn_friendship_established_id</t>
   </si>
   <si>
@@ -206,29 +182,62 @@
     <t>friend lost</t>
   </si>
   <si>
-    <t>NOTE: This command table might be updated in future and code will be done accordingly. For now code is written such that it is capable of implementing both server and client functionality, however, the unrequired code will be removed in future.</t>
-  </si>
-  <si>
-    <t>This node will implement the Server model (low power node which implements noise and humidity sensor)</t>
-  </si>
-  <si>
     <t>gecko_evt_mesh_lpn_friendship_established_id, gecko_evt_mesh_lpn_friendship_failed_id</t>
   </si>
   <si>
-    <t>on nosie, humidity sensor and pb0 interrupt</t>
-  </si>
-  <si>
     <t>mesh_lib_generic_server_publish</t>
   </si>
   <si>
-    <t>gecko_cmd_mesh_generic_server_init, init_models</t>
+    <t>factory reset timer handle, display update timer handle, log time timer handle, friend find timer handle, LPN2_alerts</t>
+  </si>
+  <si>
+    <t>gecko_cmd_system_reset, displayUpdate, gecko_cmd_mesh_lpn_establish_friendship, gecko_cmd_flash_ps_save</t>
+  </si>
+  <si>
+    <t>gecko_evt_mesh_lpn_friendship_established_id, gecko_evt_mesh_lpn_friendship_failed_id (for lpn_establish_friendship command)</t>
+  </si>
+  <si>
+    <t>gecko_cmd_mesh_generic_server_init, init_models, mesh_lib_init(malloc,free,9), gecko_cmd_mesh_lpn_init, gecko_cmd_mesh_lpn_configure, gecko_cmd_mesh_lpn_establish_friendship</t>
+  </si>
+  <si>
+    <t>Initialize the server model and friend initialization, also executes according to loaded persistent data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gecko_evt_mesh_node_provisioning_started_id, </t>
+  </si>
+  <si>
+    <t>when mesh_generic_request from client is received</t>
+  </si>
+  <si>
+    <t>Low Power Node (Server)</t>
+  </si>
+  <si>
+    <t>gecko_evt_hardware_soft_timer_id (to toggle alerts)</t>
+  </si>
+  <si>
+    <t>on nosie and pb0 interrupt, also handle humidity sensor interrupts</t>
+  </si>
+  <si>
+    <t>This event deseralizes the mesh_generic_request received from the client</t>
+  </si>
+  <si>
+    <t>Provisioning started state</t>
+  </si>
+  <si>
+    <t>Node is provisioned</t>
+  </si>
+  <si>
+    <t>Provisioning failed</t>
+  </si>
+  <si>
+    <t>Handles interrupts from PB0, noise sensor and state machine of humidity sensor; starts appropriate alerts and does gecko_publish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,23 +247,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -270,18 +268,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -296,20 +288,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,393 +615,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E565D840-D1FF-4ED3-9160-BC3A45113EA4}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="33.21875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="51.44140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="14.44140625" style="2"/>
+    <col min="1" max="1" width="34.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="33.21875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="51.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="H11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="F19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A26:C28"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
